--- a/Document/4-20mA模拟量校准.xlsx
+++ b/Document/4-20mA模拟量校准.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="20">
   <si>
     <t>模拟量输入</t>
   </si>
@@ -54,6 +54,24 @@
     <t>Channel3</t>
   </si>
   <si>
+    <t>Channel4</t>
+  </si>
+  <si>
+    <t>Channel5</t>
+  </si>
+  <si>
+    <t>Channel6</t>
+  </si>
+  <si>
+    <t>Channel7</t>
+  </si>
+  <si>
+    <t>Channel8</t>
+  </si>
+  <si>
+    <t>Channel9</t>
+  </si>
+  <si>
     <t>模拟量输出</t>
   </si>
   <si>
@@ -65,11 +83,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,17 +98,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,78 +142,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,11 +165,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,6 +220,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -224,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,13 +323,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,169 +467,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,30 +572,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -570,10 +588,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -584,6 +600,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,6 +642,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,137 +673,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,6 +853,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,10 +1220,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:S35"/>
+  <dimension ref="B1:AK35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="X9" workbookViewId="0">
+      <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1179,7 +1233,9 @@
     <col min="7" max="7" width="12.8888888888889"/>
     <col min="9" max="9" width="12.8888888888889"/>
     <col min="12" max="13" width="12.8888888888889"/>
+    <col min="15" max="15" width="12.8888888888889"/>
     <col min="18" max="18" width="12.8888888888889"/>
+    <col min="36" max="36" width="12.4722222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:10">
@@ -1241,11 +1297,11 @@
       </c>
       <c r="L4">
         <f>(E11+I11+E21+I21)/4</f>
-        <v>0.00723347717012495</v>
+        <v>0.00904349727633861</v>
       </c>
       <c r="M4">
         <f>(F11+J11+F21+J21)/4</f>
-        <v>0.468551162836593</v>
+        <v>0.558257094045724</v>
       </c>
     </row>
     <row r="5" spans="3:10">
@@ -1441,7 +1497,7 @@
         <v>0.501504139621413</v>
       </c>
     </row>
-    <row r="13" spans="3:10">
+    <row r="13" spans="3:37">
       <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
@@ -1454,8 +1510,44 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="3:10">
+      <c r="L13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="U13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AD13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+    </row>
+    <row r="14" spans="3:37">
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
@@ -1480,203 +1572,803 @@
       <c r="J14" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="3:10">
+      <c r="L14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK14" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:37">
       <c r="C15" s="8">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="D15" s="8">
-        <v>1.03</v>
+        <v>1.067</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" ref="E15:E19" si="3">(D16-D15)/(C16-C15)</f>
-        <v>0.00540106951871658</v>
+        <v>0.00891964285714286</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ref="F15:F19" si="4">D15-C15*E15</f>
-        <v>0.371069518716578</v>
+        <v>0.549660714285714</v>
       </c>
       <c r="G15" s="8">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="H15" s="8">
-        <v>1.18</v>
+        <v>1.067</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" ref="I15:I19" si="5">(H16-H15)/(G16-G15)</f>
-        <v>0.00540740740740741</v>
+        <v>0.00911246200607903</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ref="J15:J19" si="6">H15-G15*I15</f>
-        <v>0.358074074074074</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10">
+        <v>0.538477203647416</v>
+      </c>
+      <c r="L15" s="8">
+        <v>58</v>
+      </c>
+      <c r="M15" s="8">
+        <v>1.067</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" ref="N15:N19" si="7">(M16-M15)/(L16-L15)</f>
+        <v>0.00911246200607903</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" ref="O15:O19" si="8">M15-L15*N15</f>
+        <v>0.538477203647416</v>
+      </c>
+      <c r="P15" s="8">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>1.067</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" ref="R15:R19" si="9">(Q16-Q15)/(P16-P15)</f>
+        <v>0.00905740181268882</v>
+      </c>
+      <c r="S15" s="8">
+        <f t="shared" ref="S15:S19" si="10">Q15-P15*R15</f>
+        <v>0.559785498489426</v>
+      </c>
+      <c r="U15" s="8">
+        <v>58</v>
+      </c>
+      <c r="V15" s="8">
+        <v>1.067</v>
+      </c>
+      <c r="W15" s="8">
+        <f t="shared" ref="W15:W19" si="11">(V16-V15)/(U16-U15)</f>
+        <v>0.00908484848484849</v>
+      </c>
+      <c r="X15" s="8">
+        <f t="shared" ref="X15:X19" si="12">V15-U15*W15</f>
+        <v>0.540078787878788</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>56</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>1.067</v>
+      </c>
+      <c r="AA15" s="8">
+        <f t="shared" ref="AA15:AA19" si="13">(Z16-Z15)/(Y16-Y15)</f>
+        <v>0.00903012048192771</v>
+      </c>
+      <c r="AB15" s="8">
+        <f t="shared" ref="AB15:AB19" si="14">Z15-Y15*AA15</f>
+        <v>0.561313253012048</v>
+      </c>
+      <c r="AD15" s="8">
+        <v>57</v>
+      </c>
+      <c r="AE15" s="8">
+        <v>1.067</v>
+      </c>
+      <c r="AF15" s="8">
+        <f t="shared" ref="AF15:AF19" si="15">(AE16-AE15)/(AD16-AD15)</f>
+        <v>0.00908484848484849</v>
+      </c>
+      <c r="AG15" s="8">
+        <f t="shared" ref="AG15:AG19" si="16">AE15-AD15*AF15</f>
+        <v>0.549163636363636</v>
+      </c>
+      <c r="AH15" s="8">
+        <v>56</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>1.067</v>
+      </c>
+      <c r="AJ15" s="8">
+        <f t="shared" ref="AJ15:AJ19" si="17">(AI16-AI15)/(AH16-AH15)</f>
+        <v>0.00905740181268882</v>
+      </c>
+      <c r="AK15" s="8">
+        <f t="shared" ref="AK15:AK19" si="18">AI15-AH15*AJ15</f>
+        <v>0.559785498489426</v>
+      </c>
+    </row>
+    <row r="16" spans="3:37">
       <c r="C16" s="8">
-        <v>683</v>
+        <v>394</v>
       </c>
       <c r="D16" s="8">
-        <v>4.06</v>
+        <v>4.064</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="3"/>
-        <v>0.00537517053206003</v>
+        <v>0.00892444444444444</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="4"/>
-        <v>0.388758526603001</v>
+        <v>0.547768888888889</v>
       </c>
       <c r="G16" s="8">
-        <v>692</v>
+        <v>387</v>
       </c>
       <c r="H16" s="8">
-        <v>4.1</v>
+        <v>4.065</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="5"/>
-        <v>0.00537012113055182</v>
+        <v>0.00902247191011236</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" si="6"/>
-        <v>0.383876177658142</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
+        <v>0.573303370786517</v>
+      </c>
+      <c r="L16" s="8">
+        <v>387</v>
+      </c>
+      <c r="M16" s="8">
+        <v>4.065</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="7"/>
+        <v>0.00906320541760722</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="8"/>
+        <v>0.557539503386005</v>
+      </c>
+      <c r="P16" s="8">
+        <v>387</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>4.065</v>
+      </c>
+      <c r="R16" s="8">
+        <f t="shared" si="9"/>
+        <v>0.00906320541760722</v>
+      </c>
+      <c r="S16" s="8">
+        <f t="shared" si="10"/>
+        <v>0.557539503386005</v>
+      </c>
+      <c r="U16" s="8">
+        <v>388</v>
+      </c>
+      <c r="V16" s="8">
+        <v>4.065</v>
+      </c>
+      <c r="W16" s="8">
+        <f t="shared" si="11"/>
+        <v>0.00902247191011236</v>
+      </c>
+      <c r="X16" s="8">
+        <f t="shared" si="12"/>
+        <v>0.564280898876405</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>388</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>4.065</v>
+      </c>
+      <c r="AA16" s="8">
+        <f t="shared" si="13"/>
+        <v>0.00902247191011236</v>
+      </c>
+      <c r="AB16" s="8">
+        <f t="shared" si="14"/>
+        <v>0.564280898876405</v>
+      </c>
+      <c r="AD16" s="8">
+        <v>387</v>
+      </c>
+      <c r="AE16" s="8">
+        <v>4.065</v>
+      </c>
+      <c r="AF16" s="8">
+        <f t="shared" si="15"/>
+        <v>0.00906320541760722</v>
+      </c>
+      <c r="AG16" s="8">
+        <f t="shared" si="16"/>
+        <v>0.557539503386005</v>
+      </c>
+      <c r="AH16" s="8">
+        <v>387</v>
+      </c>
+      <c r="AI16" s="8">
+        <v>4.065</v>
+      </c>
+      <c r="AJ16" s="8">
+        <f t="shared" si="17"/>
+        <v>0.00908371040723982</v>
+      </c>
+      <c r="AK16" s="8">
+        <f t="shared" si="18"/>
+        <v>0.549604072398191</v>
+      </c>
+    </row>
+    <row r="17" spans="3:37">
       <c r="C17" s="8">
-        <v>1416</v>
+        <v>844</v>
       </c>
       <c r="D17" s="8">
-        <v>8</v>
+        <v>8.08</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="3"/>
-        <v>0.00536649214659686</v>
+        <v>0.0089841986455982</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="4"/>
-        <v>0.401047120418848</v>
+        <v>0.497336343115124</v>
       </c>
       <c r="G17" s="8">
-        <v>1435</v>
+        <v>832</v>
       </c>
       <c r="H17" s="8">
-        <v>8.09</v>
+        <v>8.08</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="5"/>
-        <v>0.00536551724137931</v>
+        <v>0.00908675799086758</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" si="6"/>
-        <v>0.390482758620688</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
+        <v>0.519817351598173</v>
+      </c>
+      <c r="L17" s="8">
+        <v>830</v>
+      </c>
+      <c r="M17" s="8">
+        <v>8.08</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="7"/>
+        <v>0.00904545454545455</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="8"/>
+        <v>0.572272727272727</v>
+      </c>
+      <c r="P17" s="8">
+        <v>830</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>8.08</v>
+      </c>
+      <c r="R17" s="8">
+        <f t="shared" si="9"/>
+        <v>0.00910755148741419</v>
+      </c>
+      <c r="S17" s="8">
+        <f t="shared" si="10"/>
+        <v>0.520732265446223</v>
+      </c>
+      <c r="U17" s="8">
+        <v>833</v>
+      </c>
+      <c r="V17" s="8">
+        <v>8.08</v>
+      </c>
+      <c r="W17" s="8">
+        <f t="shared" si="11"/>
+        <v>0.00908675799086758</v>
+      </c>
+      <c r="X17" s="8">
+        <f t="shared" si="12"/>
+        <v>0.510730593607304</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>833</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>8.08</v>
+      </c>
+      <c r="AA17" s="8">
+        <f t="shared" si="13"/>
+        <v>0.0090249433106576</v>
+      </c>
+      <c r="AB17" s="8">
+        <f t="shared" si="14"/>
+        <v>0.562222222222221</v>
+      </c>
+      <c r="AD17" s="8">
+        <v>830</v>
+      </c>
+      <c r="AE17" s="8">
+        <v>8.08</v>
+      </c>
+      <c r="AF17" s="8">
+        <f t="shared" si="15"/>
+        <v>0.00906605922551253</v>
+      </c>
+      <c r="AG17" s="8">
+        <f t="shared" si="16"/>
+        <v>0.5551708428246</v>
+      </c>
+      <c r="AH17" s="8">
+        <v>829</v>
+      </c>
+      <c r="AI17" s="8">
+        <v>8.08</v>
+      </c>
+      <c r="AJ17" s="8">
+        <f t="shared" si="17"/>
+        <v>0.00906605922551253</v>
+      </c>
+      <c r="AK17" s="8">
+        <f t="shared" si="18"/>
+        <v>0.564236902050113</v>
+      </c>
+    </row>
+    <row r="18" spans="3:37">
       <c r="C18" s="8">
-        <v>2180</v>
+        <v>1287</v>
       </c>
       <c r="D18" s="8">
-        <v>12.1</v>
+        <v>12.06</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" si="3"/>
-        <v>0.00535269709543569</v>
+        <v>0.00893095768374165</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" si="4"/>
-        <v>0.431120331950204</v>
+        <v>0.5658574610245</v>
       </c>
       <c r="G18" s="8">
-        <v>2160</v>
+        <v>1270</v>
       </c>
       <c r="H18" s="8">
-        <v>11.98</v>
+        <v>12.06</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="5"/>
-        <v>0.00537940379403794</v>
+        <v>0.00903153153153153</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" si="6"/>
-        <v>0.360487804878051</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10">
+        <v>0.589954954954957</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1270</v>
+      </c>
+      <c r="M18" s="8">
+        <v>12.06</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="7"/>
+        <v>0.00907239819004525</v>
+      </c>
+      <c r="O18" s="8">
+        <f t="shared" si="8"/>
+        <v>0.538054298642534</v>
+      </c>
+      <c r="P18" s="8">
+        <v>1267</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>12.06</v>
+      </c>
+      <c r="R18" s="8">
+        <f t="shared" si="9"/>
+        <v>0.00907239819004525</v>
+      </c>
+      <c r="S18" s="8">
+        <f t="shared" si="10"/>
+        <v>0.56527149321267</v>
+      </c>
+      <c r="U18" s="8">
+        <v>1271</v>
+      </c>
+      <c r="V18" s="8">
+        <v>12.06</v>
+      </c>
+      <c r="W18" s="8">
+        <f t="shared" si="11"/>
+        <v>0.00905191873589165</v>
+      </c>
+      <c r="X18" s="8">
+        <f t="shared" si="12"/>
+        <v>0.555011286681717</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>1274</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>12.06</v>
+      </c>
+      <c r="AA18" s="8">
+        <f t="shared" si="13"/>
+        <v>0.00905191873589165</v>
+      </c>
+      <c r="AB18" s="8">
+        <f t="shared" si="14"/>
+        <v>0.527855530474042</v>
+      </c>
+      <c r="AD18" s="8">
+        <v>1269</v>
+      </c>
+      <c r="AE18" s="8">
+        <v>12.06</v>
+      </c>
+      <c r="AF18" s="8">
+        <f t="shared" si="15"/>
+        <v>0.00903153153153153</v>
+      </c>
+      <c r="AG18" s="8">
+        <f t="shared" si="16"/>
+        <v>0.598986486486487</v>
+      </c>
+      <c r="AH18" s="8">
+        <v>1268</v>
+      </c>
+      <c r="AI18" s="8">
+        <v>12.06</v>
+      </c>
+      <c r="AJ18" s="8">
+        <f t="shared" si="17"/>
+        <v>0.00905191873589165</v>
+      </c>
+      <c r="AK18" s="8">
+        <f t="shared" si="18"/>
+        <v>0.582167042889392</v>
+      </c>
+    </row>
+    <row r="19" spans="3:37">
       <c r="C19" s="8">
-        <v>2903</v>
+        <v>1736</v>
       </c>
       <c r="D19" s="9">
-        <v>15.97</v>
+        <v>16.07</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="3"/>
-        <v>0.00542185338865837</v>
+        <v>0.00894618834080717</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="4"/>
-        <v>0.23035961272476</v>
+        <v>0.539417040358751</v>
       </c>
       <c r="G19" s="8">
-        <v>2898</v>
+        <v>1714</v>
       </c>
       <c r="H19" s="9">
-        <v>15.95</v>
+        <v>16.07</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="5"/>
-        <v>0.00538670284938942</v>
+        <v>0.00906818181818181</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" si="6"/>
-        <v>0.33933514246946</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
+        <v>0.527136363636371</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1712</v>
+      </c>
+      <c r="M19" s="9">
+        <v>16.07</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="7"/>
+        <v>0.00906818181818181</v>
+      </c>
+      <c r="O19" s="8">
+        <f t="shared" si="8"/>
+        <v>0.545272727272735</v>
+      </c>
+      <c r="P19" s="8">
+        <v>1709</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>16.07</v>
+      </c>
+      <c r="R19" s="8">
+        <f t="shared" si="9"/>
+        <v>0.00904761904761904</v>
+      </c>
+      <c r="S19" s="8">
+        <f t="shared" si="10"/>
+        <v>0.607619047619055</v>
+      </c>
+      <c r="U19" s="8">
+        <v>1714</v>
+      </c>
+      <c r="V19" s="9">
+        <v>16.07</v>
+      </c>
+      <c r="W19" s="8">
+        <f t="shared" si="11"/>
+        <v>0.00908883826879271</v>
+      </c>
+      <c r="X19" s="8">
+        <f t="shared" si="12"/>
+        <v>0.4917312072893</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>1717</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>16.07</v>
+      </c>
+      <c r="AA19" s="8">
+        <f t="shared" si="13"/>
+        <v>0.00904761904761904</v>
+      </c>
+      <c r="AB19" s="8">
+        <f t="shared" si="14"/>
+        <v>0.535238095238102</v>
+      </c>
+      <c r="AD19" s="8">
+        <v>1713</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>16.07</v>
+      </c>
+      <c r="AF19" s="8">
+        <f t="shared" si="15"/>
+        <v>0.00908883826879271</v>
+      </c>
+      <c r="AG19" s="8">
+        <f t="shared" si="16"/>
+        <v>0.500820045558093</v>
+      </c>
+      <c r="AH19" s="8">
+        <v>1711</v>
+      </c>
+      <c r="AI19" s="9">
+        <v>16.07</v>
+      </c>
+      <c r="AJ19" s="8">
+        <f t="shared" si="17"/>
+        <v>0.00908883826879271</v>
+      </c>
+      <c r="AK19" s="8">
+        <f t="shared" si="18"/>
+        <v>0.518997722095678</v>
+      </c>
+    </row>
+    <row r="20" spans="3:37">
       <c r="C20" s="8">
-        <v>3626</v>
+        <v>2182</v>
       </c>
       <c r="D20" s="8">
-        <v>19.89</v>
+        <v>20.06</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8">
-        <v>3635</v>
+        <v>2154</v>
       </c>
       <c r="H20" s="8">
-        <v>19.92</v>
+        <v>20.06</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="L20" s="8">
+        <v>2152</v>
+      </c>
+      <c r="M20" s="8">
+        <v>20.06</v>
+      </c>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8">
+        <v>2150</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>20.06</v>
+      </c>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="U20" s="8">
+        <v>2153</v>
+      </c>
+      <c r="V20" s="8">
+        <v>20.06</v>
+      </c>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8">
+        <v>2158</v>
+      </c>
+      <c r="Z20" s="8">
+        <v>20.06</v>
+      </c>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AD20" s="8">
+        <v>2152</v>
+      </c>
+      <c r="AE20" s="8">
+        <v>20.06</v>
+      </c>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8">
+        <v>2150</v>
+      </c>
+      <c r="AI20" s="8">
+        <v>20.06</v>
+      </c>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+    </row>
+    <row r="21" spans="2:37">
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8">
-        <f t="shared" ref="E21:J21" si="7">AVERAGE(E15:E20)</f>
-        <v>0.0053834565362935</v>
+        <f>AVERAGE(E15:E20)</f>
+        <v>0.00894108639434687</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="7"/>
-        <v>0.364471022082678</v>
+        <f t="shared" ref="E21:J21" si="19">AVERAGE(F15:F20)</f>
+        <v>0.540008089534596</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8">
-        <f t="shared" si="7"/>
-        <v>0.00538183048455318</v>
+        <f t="shared" si="19"/>
+        <v>0.00906428105135446</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="7"/>
-        <v>0.366451191540083</v>
+        <f t="shared" si="19"/>
+        <v>0.549737848924687</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8">
+        <f t="shared" ref="N21:S21" si="20">AVERAGE(N15:N20)</f>
+        <v>0.00907234039547357</v>
+      </c>
+      <c r="O21" s="8">
+        <f>AVERAGE(O15:O20)</f>
+        <v>0.550323292044284</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8">
+        <f t="shared" si="20"/>
+        <v>0.0090696351910749</v>
+      </c>
+      <c r="S21" s="8">
+        <f t="shared" si="20"/>
+        <v>0.562189561630676</v>
+      </c>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8">
+        <f t="shared" ref="W21:AB21" si="21">AVERAGE(W15:W20)</f>
+        <v>0.00906696707810256</v>
+      </c>
+      <c r="X21" s="8">
+        <f t="shared" si="21"/>
+        <v>0.532366554866703</v>
+      </c>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8">
+        <f t="shared" si="21"/>
+        <v>0.00903541469724167</v>
+      </c>
+      <c r="AB21" s="8">
+        <f t="shared" si="21"/>
+        <v>0.550181999964564</v>
+      </c>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8">
+        <f t="shared" ref="AF21:AK21" si="22">AVERAGE(AF15:AF20)</f>
+        <v>0.0090668965856585</v>
+      </c>
+      <c r="AG21" s="8">
+        <f t="shared" si="22"/>
+        <v>0.552336102923764</v>
+      </c>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8">
+        <f t="shared" si="22"/>
+        <v>0.0090695856900251</v>
+      </c>
+      <c r="AK21" s="8">
+        <f t="shared" si="22"/>
+        <v>0.55495824758456</v>
       </c>
     </row>
     <row r="24" spans="3:10">
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1714,7 +2406,7 @@
     </row>
     <row r="26" spans="3:19">
       <c r="C26" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>6</v>
@@ -1726,7 +2418,7 @@
         <v>8</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>6</v>
@@ -1738,7 +2430,7 @@
         <v>8</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>6</v>
@@ -1750,7 +2442,7 @@
         <v>8</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="5" t="s">
         <v>6</v>
@@ -1913,7 +2605,7 @@
     </row>
     <row r="32" spans="3:19">
       <c r="C32" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>6</v>
@@ -1925,7 +2617,7 @@
         <v>8</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>6</v>
@@ -1937,7 +2629,7 @@
         <v>8</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>6</v>
@@ -1949,7 +2641,7 @@
         <v>8</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q32" s="5" t="s">
         <v>6</v>
@@ -2075,12 +2767,18 @@
       <c r="S35" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="20">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="G13:J13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="G25:J25"/>
